--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachet\Documents\2ndYearFirstSem\CPS530\CPS530-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55752D8B-779B-4F97-91D4-2391A0920B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E804D-D962-4606-B96C-E6996969BC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{48578956-EA19-4D9E-B29F-550E5A64DFBC}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{48578956-EA19-4D9E-B29F-550E5A64DFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
